--- a/src/test/resources/Excel Files/LJSignUpAndValidateMandatoryfield.xlsx
+++ b/src/test/resources/Excel Files/LJSignUpAndValidateMandatoryfield.xlsx
@@ -455,7 +455,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/Excel Files/LJSignUpAndValidateMandatoryfield.xlsx
+++ b/src/test/resources/Excel Files/LJSignUpAndValidateMandatoryfield.xlsx
@@ -455,7 +455,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
